--- a/ExcelDatas/Datas/__tables__.xlsx
+++ b/ExcelDatas/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>tips.xlsx</t>
+  </si>
+  <si>
+    <t>UiCfg</t>
+  </si>
+  <si>
+    <t>UiCfgItem</t>
+  </si>
+  <si>
+    <t>uicfg.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1045,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1164,6 +1173,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/ExcelDatas/Datas/__tables__.xlsx
+++ b/ExcelDatas/Datas/__tables__.xlsx
@@ -9,12 +9,25 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -113,12 +126,21 @@
   </si>
   <si>
     <t>uicfg.xlsx</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>ItemItem</t>
+  </si>
+  <si>
+    <t>item.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1054,13 +1076,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="20.3833333333333" customWidth="1"/>
     <col min="3" max="3" width="15.575" customWidth="1"/>
@@ -1187,6 +1209,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
